--- a/Dataset/Folds/Fold_2/Excel/79.xlsx
+++ b/Dataset/Folds/Fold_2/Excel/79.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3746" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4178" uniqueCount="534">
   <si>
     <t>Doi</t>
   </si>
@@ -1631,6 +1631,205 @@
   </si>
   <si>
     <t>[T.‐H.%Lin%NULL%1,                            F.‐C.%Tang%NULL%1,                            P.‐C.%Hung%NULL%1,                            Z.‐C.%Hua%NULL%1,                            C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,                             Stephen B.%Martin%NULL%1,                             Robert E.%Thewlis%NULL%1,                             Khachatur%Sarkisian%NULL%1,                             Julian O.%Nwoko%NULL%1,                             Kenneth R.%Mead%NULL%1,                             John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%2,                             Michael S.%Bergman%NULL%1,                             Benjamin C.%Eimer%NULL%1,                             Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,                             Jessica L.%Williams%NULL%1,                             Ronald E.%Shaffer%NULL%0,                             Tom%Jefferson%NULL%2,                             Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,                             Delbert A.%Harnish%dharnish@ara.com%1,                             Caryn%Lawrence%NULL%1,                             Megan%Sandoval-Powers%NULL%1,                             Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,                             Ayush%Gupta%NULL%2,                             Anand Kumar%Maurya%NULL%4,                             Anand Kumar%Maurya%NULL%0,                             Amitava%Mukherjee%NULL%22,                             Amitava%Mukherjee%NULL%0,                             Amitava%Mukherjee%NULL%0,                             Amitava%Mukherjee%NULL%0,                             Amitava%Mukherjee%NULL%0,                             Amitava%Mukherjee%NULL%0,                             Amitava%Mukherjee%NULL%0,                             Amitava%Mukherjee%NULL%0,                             Amitava%Mukherjee%NULL%0,                             Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,                             Ayush%Gupta%NULL%0,                             Anand Kumar%Maurya%NULL%0,                             Anand Kumar%Maurya%NULL%0,                             Amitava%Mukherjee%NULL%0,                             Amitava%Mukherjee%NULL%0,                             Amitava%Mukherjee%NULL%0,                             Amitava%Mukherjee%NULL%0,                             Amitava%Mukherjee%NULL%0,                             Amitava%Mukherjee%NULL%0,                             Amitava%Mukherjee%NULL%0,                             Amitava%Mukherjee%NULL%0,                             Amitava%Mukherjee%NULL%0,                             Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,                             R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,                             K.%Kinney%NULL%1,                             W.H.%Wallace%NULL%1,                             A.E.%Lumley%NULL%1,                             B.K.%Heimbuch%NULL%1,                             J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,                             Chih-Chieh%Chen%NULL%1,                             Sheng-Hsiu%Huang%NULL%1,                             Chung-Wen%Kuo%NULL%2,                             Chung-Wen%Kuo%NULL%0,                             Chane-Yu%Lai%NULL%1,                             Wen-Yinn%Lin%NULL%1,                             Amitava%Mukherjee%NULL%0,                             Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,                             F.‐C.%Tang%NULL%1,                             P.‐C.%Hung%NULL%1,                             Z.‐C.%Hua%NULL%1,                             C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%1,                              Stephen B.%Martin%NULL%1,                              Robert E.%Thewlis%NULL%1,                              Khachatur%Sarkisian%NULL%1,                              Julian O.%Nwoko%NULL%1,                              Kenneth R.%Mead%NULL%1,                              John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%1,                              Michael S.%Bergman%NULL%1,                              Benjamin C.%Eimer%NULL%1,                              Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%1,                              Jessica L.%Williams%NULL%1,                              Ronald E.%Shaffer%NULL%0,                              Tom%Jefferson%NULL%2,                              Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%1,                              Delbert A.%Harnish%dharnish@ara.com%1,                              Caryn%Lawrence%NULL%1,                              Megan%Sandoval-Powers%NULL%1,                              Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,                              Ayush%Gupta%NULL%2,                              Anand Kumar%Maurya%NULL%4,                              Anand Kumar%Maurya%NULL%0,                              Amitava%Mukherjee%NULL%22,                              Amitava%Mukherjee%NULL%0,                              Amitava%Mukherjee%NULL%0,                              Amitava%Mukherjee%NULL%0,                              Amitava%Mukherjee%NULL%0,                              Amitava%Mukherjee%NULL%0,                              Amitava%Mukherjee%NULL%0,                              Amitava%Mukherjee%NULL%0,                              Amitava%Mukherjee%NULL%0,                              Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0,                              Ayush%Gupta%NULL%0,                              Anand Kumar%Maurya%NULL%0,                              Anand Kumar%Maurya%NULL%0,                              Amitava%Mukherjee%NULL%0,                              Amitava%Mukherjee%NULL%0,                              Amitava%Mukherjee%NULL%0,                              Amitava%Mukherjee%NULL%0,                              Amitava%Mukherjee%NULL%0,                              Amitava%Mukherjee%NULL%0,                              Amitava%Mukherjee%NULL%0,                              Amitava%Mukherjee%NULL%0,                              Amitava%Mukherjee%NULL%0,                              Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%1,                              R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%1,                              K.%Kinney%NULL%1,                              W.H.%Wallace%NULL%1,                              A.E.%Lumley%NULL%1,                              B.K.%Heimbuch%NULL%1,                              J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%1,                              Chih-Chieh%Chen%NULL%1,                              Sheng-Hsiu%Huang%NULL%1,                              Chung-Wen%Kuo%NULL%2,                              Chung-Wen%Kuo%NULL%0,                              Chane-Yu%Lai%NULL%1,                              Wen-Yinn%Lin%NULL%1,                              Amitava%Mukherjee%NULL%0,                              Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%1,                              F.‐C.%Tang%NULL%1,                              P.‐C.%Hung%NULL%1,                              Z.‐C.%Hua%NULL%1,                              C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ability to disinfect and reuse disposable N95 filtering facepiece respirators (FFRs) may be needed during a pandemic of an infectious respiratory disease such as influenza.
+ Ultraviolet germicidal irradiation (UVGI) is one possible method for respirator disinfection.
+ However, UV radiation degrades polymers, which presents the possibility that UVGI exposure could degrade the ability of a disposable respirator to protect the worker.
+ To study this, we exposed both sides of material coupons and respirator straps from four models of N95 FFRs to UVGI doses from 120–950 J/cm2.
+ We then tested the particle penetration, flow resistance, and bursting strengths of the individual respirator coupon layers, and the breaking strength of the respirator straps.
+ We found that UVGI exposure led to a small increase in particle penetration (up to 1.25%) and had little effect on the flow resistance.
+ UVGI exposure had a more pronounced effect on the strengths of the respirator materials.
+ At the higher UVGI doses, the strength of the layers of respirator material was substantially reduced (in some cases, by &amp;gt;90%).
+ The changes in the strengths of the respirator materials varied considerably among the different models of respirators.
+ UVGI had less of an effect on the respirator straps; a dose of 2360 J/cm2 reduced the breaking strength of the straps by 20–51%.
+ Our results suggest that UVGI could be used to effectively disinfect disposable respirators for reuse, but the maximum number of disinfection cycles will be limited by the respirator model and the UVGI dose required to inactivate the pathogen.
+</t>
+  </si>
+  <si>
+    <t>[William G.%Lindsley%NULL%0, Stephen B.%Martin%NULL%1, Robert E.%Thewlis%NULL%1, Khachatur%Sarkisian%NULL%1, Julian O.%Nwoko%NULL%1, Kenneth R.%Mead%NULL%1, John D.%Noti%NULL%1]</t>
+  </si>
+  <si>
+    <t>Taylor &amp;amp; Francis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concerns have been raised regarding the availability of National Institute for Occupational Safety and Health (NIOSH)-certified N95 filtering facepiece respirators (FFRs) during an influenza pandemic.
+ One possible strategy to mitigate a respirator shortage is to reuse FFRs following a biological decontamination process to render infectious material on the FFR inactive.
+ However, little data exist on the effects of decontamination methods on respirator integrity and performance.
+ This study evaluated five decontamination methods [ultraviolet germicidal irradiation (UVGI), ethylene oxide, vaporized hydrogen peroxide (VHP), microwave oven irradiation, and bleach] using nine models of NIOSH-certified respirators (three models each of N95 FFRs, surgical N95 respirators, and P100 FFRs) to determine which methods should be considered for future research studies.
+ Following treatment by each decontamination method, the FFRs were evaluated for changes in physical appearance, odor, and laboratory performance (filter aerosol penetration and filter airflow resistance).
+ Additional experiments (dry heat laboratory oven exposures, off-gassing, and FFR hydrophobicity) were subsequently conducted to better understand material properties and possible health risks to the respirator user following decontamination.
+ However, this study did not assess the efficiency of the decontamination methods to inactivate viable microorganisms.
+ Microwave oven irradiation melted samples from two FFR models.
+ The remainder of the FFR samples that had been decontaminated had expected levels of filter aerosol penetration and filter airflow resistance.
+ The scent of bleach remained noticeable following overnight drying and low levels of chlorine gas were found to off-gas from bleach-decontaminated FFRs when rehydrated with deionized water.
+ UVGI, ethylene oxide (EtO), and VHP were found to be the most promising decontamination methods; however, concerns remain about the throughput capabilities for EtO and VHP.
+ Further research is needed before any specific decontamination methods can be recommended.
+</t>
+  </si>
+  <si>
+    <t>[Dennis J.%Viscusi%NULL%0, Michael S.%Bergman%NULL%1, Benjamin C.%Eimer%NULL%1, Ronald E.%Shaffer%rshaffer@cdc.gov%2]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reusing filtering facepiece respirators (FFRs) has been suggested as a strategy to conserve available supplies for home and healthcare environments during an influenza pandemic.
+ For reuse to be possible, used FFRs must be decontaminated before redonning to reduce the risk of virus transmission; however, there are no approved methods for FFR decontamination.
+ An effective method must reduce the microbial threat, maintain the function of the FFR, and present no residual chemical hazard.
+ The method should be readily available, inexpensive and easily implemented by healthcare workers and the general public.
+ Many of the general decontamination protocols used in healthcare and home settings are unable to address all of the desired qualities of an efficient FFR decontamination protocol.
+ The goal of this study is to evaluate the use of two commercially available steam bags, marketed to the public for disinfecting infant feeding equipment, for FFR decontamination.
+ The FFRs were decontaminated with microwave generated steam following the manufacturers' instructions then evaluated for water absorption and filtration efficiency for up to three steam exposures.
+ Water absorption of the FFR was found to be model specific as FFRs constructed with hydrophilic materials absorbed more water.
+ The steam had little effect on FFR performance as filtration efficiency of the treated FFRs remained above 95%.
+ The decontamination efficacy of the steam bag was assessed using bacteriophage MS2 as a surrogate for a pathogenic virus.
+ The tested steam bags were found to be 99.9% effective for inactivating MS2 on FFRs; however, more research is required to determine the effectiveness against respiratory pathogens.
+</t>
+  </si>
+  <si>
+    <t>[Edward M.%Fisher%NULL%0, Jessica L.%Williams%NULL%1, Ronald E.%Shaffer%NULL%0, Tom%Jefferson%NULL%2, Tom%Jefferson%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Ultraviolet light can significantly reduce viable influenza on N95 respirators.
+</t>
+  </si>
+  <si>
+    <t>[Devin%Mills%NULL%0, Delbert A.%Harnish%dharnish@ara.com%1, Caryn%Lawrence%NULL%1, Megan%Sandoval-Powers%NULL%1, Brian K.%Heimbuch%NULL%1]</t>
+  </si>
+  <si>
+    <t>Association for Professionals in Infection Control and Epidemiology, Inc. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Diptanu%Paul%NULL%0, Ayush%Gupta%NULL%2, Anand Kumar%Maurya%NULL%4, Anand Kumar%Maurya%NULL%0, Amitava%Mukherjee%NULL%22, Amitava%Mukherjee%NULL%0, Amitava%Mukherjee%NULL%0, Amitava%Mukherjee%NULL%0, Amitava%Mukherjee%NULL%0, Amitava%Mukherjee%NULL%0, Amitava%Mukherjee%NULL%0, Amitava%Mukherjee%NULL%0, Amitava%Mukherjee%NULL%0, Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Aims:  To develop a method to assess model‐specific parameters for ultraviolet‐C (UV‐C, 254 nm) decontamination of filtering facepiece respirators (FFRs).
+</t>
+  </si>
+  <si>
+    <t>[E.M.%Fisher%NULL%0, R.E.%Shaffer%NULL%1]</t>
+  </si>
+  <si>
+    <t>Blackwell Science Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The N95 filtering facepiece respirator (FFR) is commonly used to protect individuals from infectious aerosols.
+ Health care experts predict a shortage of N95 FFRs if a severe pandemic occurs, and an option that has been suggested for mitigating such an FFR shortage is to decontaminate and reuse the devices.
+ Before the effectiveness of this strategy can be established, many parameters affecting respiratory protection must be measured: biocidal efficacy of the decontamination treatment, filtration performance, pressure drop, fit, and toxicity to the end user post treatment.
+ This research effort measured the amount of residual chemicals created or deposited on six models of FFRs following treatment by each of 7 simple decontamination technologies.
+ Measured amounts of decontaminants retained by the FFRs treated with chemical disinfectants were small enough that exposure to wearers will be below the permissible exposure limit (PEL).
+ Toxic by-products were also evaluated, and two suspected toxins were detected after ethylene oxide treatment of FFR rubber straps.
+ The results provide encouragement to efforts promoting the evolution of effective strategies for decontamination and reuse of FFRs.
+</t>
+  </si>
+  <si>
+    <t>[W.B.%Salter%NULL%0, K.%Kinney%NULL%1, W.H.%Wallace%NULL%1, A.E.%Lumley%NULL%1, B.K.%Heimbuch%NULL%1, J.D.%Wander%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study investigates the effects of five decontamination methods on the filter quality (qf) of three commercially available electret masks—N95, Gauze and Spunlace nonwoven masks.
+ Newly developed evaluation methods, the overall filter quality (qf,o) and the qf ratio were applied to evaluate the effectiveness of decontamination methods for respirators.
+ A scanning mobility particle sizer is utilized to measure the concentration of polydispersed particles with diameter 14.6–594 nm.
+ The penetration of particles and pressure drop (Δp) through the mask are used to determine qf and qf,o.
+ Experimental results reveal that the most penetrating particle size (MPS) for the pre-decontaminated N95, Gauze and Spunlace masks were 118 nm, 461 nm and 279 nm, respectively, and the respective penetration rates were 2.6%, 23.2% and 70.0%.
+ The Δp through the pretreated N95 masks was 9.2 mm H2O at the breathing flow rate of heavy-duty workers, exceeding the Δp values obtained through Gauze and Spunlace masks.
+ Decontamination increased the sizes of the most penetrating particles, changing the qf values of all of the masks: qf fell as particle size increased because the penetration increased.
+ Bleach increased the Δp of N95, but destroyed the Gauze mask.
+ However, the use of an autoclave reduces the Δp values of both the N95 and the Gauze mask.
+ Neither the rice cooker nor ethanol altered the Δp of the Gauze mask.
+ Chemical decontamination methods reduced the qf,o values for the three electret masks.
+ The value of qf,o for PM0.1 exceeded that for PM0.1–0.6, because particles smaller than 100 nm had lower penetration, resulting in a better qf for a given pressure drop.
+ The values of qf,o, particularly for PM0.1, reveal that for the tested treatments and masks, physical decontamination methods are less destructive to the filter than chemical methods.
+ Nevertheless, when purchasing new or reusing FFRs, penetration should be regarded as the priority.
+</t>
+  </si>
+  <si>
+    <t>[Tzu-Hsien%Lin%NULL%0, Chih-Chieh%Chen%NULL%1, Sheng-Hsiu%Huang%NULL%1, Chung-Wen%Kuo%NULL%2, Chung-Wen%Kuo%NULL%0, Chane-Yu%Lai%NULL%1, Wen-Yinn%Lin%NULL%1, Amitava%Mukherjee%NULL%0, Amitava%Mukherjee%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study determines the relative survival (RS) of Bacillus subtilis spores loaded on an N95 filtering facepiece respirator (FFR) after decontamination by five methods under worst‐case conditions.
+ Relative survival was obtained by testing after decontamination and after storing the FFRs at 37°C and 95% relative humidity for 24 hours.
+ The decontamination methods involved ethanol, bleach, ultraviolet irradiation (UVA 365 nm, UVC 254 nm), an autoclave, and a traditional electric rice cooker (TERC) that was made in Taiwan.
+ Without decontamination, 59 ± 8% of the loaded spores survived for 24 hours.
+ When 70% ethanol was added to the N95 FFR at a packing density of 0.23, the RS was 73 ± 5% initially and decayed to 22 ± 8% in 24 hours.
+ Relative survival remained above 20% after 20 minutes of UVA irradiation.
+ The other four decontamination measures achieved 99%‐100% biocidal efficacy, as measured immediately after the methods were applied to the test FFRs.
+ Relative survival is a useful parameter for measuring sterilization or degree of disinfection.
+ Bleach, UVC, an autoclave, and a TERC provide better biocidal efficacy than ethanol and UVA.
+ Not only a higher filter quality but also a lower value of RS produced the most decontaminated FFR.
+</t>
+  </si>
+  <si>
+    <t>[T.‐H.%Lin%NULL%0, F.‐C.%Tang%NULL%1, P.‐C.%Hung%NULL%1, Z.‐C.%Hua%NULL%1, C.‐Y.%Lai%cylai511@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
   </si>
 </sst>
 </file>
@@ -1973,10 +2172,10 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>511</v>
       </c>
       <c r="E2" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1988,10 +2187,10 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>365</v>
+        <v>126</v>
       </c>
       <c r="J2" t="s">
-        <v>126</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3">
@@ -2002,28 +2201,28 @@
         <v>40513.0</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>285</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
         <v>126</v>
       </c>
       <c r="J3" t="s">
-        <v>402</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -2034,7 +2233,7 @@
         <v>40909.0</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -2043,19 +2242,19 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
         <v>126</v>
       </c>
       <c r="J4" t="s">
-        <v>403</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -2069,10 +2268,10 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>514</v>
       </c>
       <c r="E5" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -2084,10 +2283,10 @@
         <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>365</v>
+        <v>126</v>
       </c>
       <c r="J5" t="s">
-        <v>126</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6">
@@ -2101,10 +2300,10 @@
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>517</v>
       </c>
       <c r="E6" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -2116,10 +2315,10 @@
         <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>365</v>
+        <v>126</v>
       </c>
       <c r="J6" t="s">
-        <v>126</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7">
@@ -2130,25 +2329,25 @@
         <v>41699.0</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>482</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>367</v>
+        <v>126</v>
       </c>
       <c r="J7" t="s">
         <v>126</v>
@@ -2165,10 +2364,10 @@
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>520</v>
       </c>
       <c r="E8" t="s">
-        <v>483</v>
+        <v>521</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -2180,10 +2379,10 @@
         <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>372</v>
+        <v>126</v>
       </c>
       <c r="J8" t="s">
-        <v>126</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9">
@@ -2194,25 +2393,25 @@
         <v>40575.0</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>484</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>367</v>
+        <v>126</v>
       </c>
       <c r="J9" t="s">
         <v>126</v>
@@ -2226,28 +2425,28 @@
         <v>40725.0</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>291</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
         <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>409</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -2264,7 +2463,7 @@
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>485</v>
+        <v>523</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -2276,10 +2475,10 @@
         <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>365</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12">
@@ -2296,7 +2495,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>486</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -2308,10 +2507,10 @@
         <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>365</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13">
@@ -2325,10 +2524,10 @@
         <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>524</v>
       </c>
       <c r="E13" t="s">
-        <v>487</v>
+        <v>525</v>
       </c>
       <c r="F13" t="s">
         <v>70</v>
@@ -2340,10 +2539,10 @@
         <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>365</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14">
@@ -2354,28 +2553,28 @@
         <v>40148.0</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>295</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
         <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>414</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -2386,28 +2585,28 @@
         <v>39873.0</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>296</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
         <v>126</v>
       </c>
       <c r="J15" t="s">
-        <v>414</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
@@ -2421,10 +2620,10 @@
         <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>527</v>
       </c>
       <c r="E16" t="s">
-        <v>488</v>
+        <v>528</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -2436,10 +2635,10 @@
         <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>365</v>
+        <v>126</v>
       </c>
       <c r="J16" t="s">
-        <v>126</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17">
@@ -2453,10 +2652,10 @@
         <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>529</v>
       </c>
       <c r="E17" t="s">
-        <v>489</v>
+        <v>530</v>
       </c>
       <c r="F17" t="s">
         <v>79</v>
@@ -2468,10 +2667,10 @@
         <v>80</v>
       </c>
       <c r="I17" t="s">
-        <v>365</v>
+        <v>126</v>
       </c>
       <c r="J17" t="s">
-        <v>126</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18">
@@ -2485,10 +2684,10 @@
         <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>531</v>
       </c>
       <c r="E18" t="s">
-        <v>490</v>
+        <v>532</v>
       </c>
       <c r="F18" t="s">
         <v>84</v>
@@ -2500,10 +2699,10 @@
         <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>365</v>
+        <v>126</v>
       </c>
       <c r="J18" t="s">
-        <v>126</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
